--- a/Log/testcase_log_result.xlsx
+++ b/Log/testcase_log_result.xlsx
@@ -572,16 +572,8 @@
           <t>Send mail</t>
         </is>
       </c>
-      <c r="E2" s="14" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-      <c r="F2" s="14" t="inlineStr">
-        <is>
-          <t>2022/11/0109:43:18</t>
-        </is>
-      </c>
+      <c r="E2" s="14" t="inlineStr"/>
+      <c r="F2" s="14" t="inlineStr"/>
       <c r="G2" s="14" t="inlineStr"/>
       <c r="I2" s="15" t="inlineStr"/>
       <c r="J2" s="15" t="inlineStr"/>
@@ -612,16 +604,8 @@
           <t>View Mail</t>
         </is>
       </c>
-      <c r="E3" s="14" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-      <c r="F3" s="14" t="inlineStr">
-        <is>
-          <t>2022/11/0109:43:18</t>
-        </is>
-      </c>
+      <c r="E3" s="14" t="inlineStr"/>
+      <c r="F3" s="14" t="inlineStr"/>
       <c r="G3" s="14" t="inlineStr"/>
     </row>
     <row r="4" ht="15.75" customHeight="1" s="1">
@@ -645,16 +629,8 @@
           <t>Reply mail</t>
         </is>
       </c>
-      <c r="E4" s="14" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-      <c r="F4" s="14" t="inlineStr">
-        <is>
-          <t>2022/11/0109:43:18</t>
-        </is>
-      </c>
+      <c r="E4" s="14" t="inlineStr"/>
+      <c r="F4" s="14" t="inlineStr"/>
       <c r="G4" s="14" t="inlineStr"/>
     </row>
     <row r="5" ht="15.75" customHeight="1" s="1">

--- a/Log/testcase_log_result.xlsx
+++ b/Log/testcase_log_result.xlsx
@@ -571,7 +571,7 @@
       </c>
       <c r="F2" s="13" t="inlineStr">
         <is>
-          <t>08:40:30 2022/11/21</t>
+          <t>16:38:38 2022/11/22</t>
         </is>
       </c>
       <c r="G2" s="13" t="inlineStr">
@@ -581,7 +581,7 @@
       </c>
       <c r="I2" s="14" t="inlineStr">
         <is>
-          <t>221121084047</t>
+          <t>221122163856</t>
         </is>
       </c>
       <c r="J2" s="14" t="inlineStr"/>
@@ -619,7 +619,7 @@
       </c>
       <c r="F3" s="13" t="inlineStr">
         <is>
-          <t>08:40:30 2022/11/21</t>
+          <t>16:38:38 2022/11/22</t>
         </is>
       </c>
       <c r="G3" s="13" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="F4" s="13" t="inlineStr">
         <is>
-          <t>08:40:30 2022/11/21</t>
+          <t>16:38:38 2022/11/22</t>
         </is>
       </c>
       <c r="G4" s="13" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="F5" s="13" t="inlineStr">
         <is>
-          <t>08:40:30 2022/11/21</t>
+          <t>16:38:38 2022/11/22</t>
         </is>
       </c>
       <c r="G5" s="13" t="inlineStr">

--- a/Log/testcase_log_result.xlsx
+++ b/Log/testcase_log_result.xlsx
@@ -571,7 +571,7 @@
       </c>
       <c r="F2" s="13" t="inlineStr">
         <is>
-          <t>17:27:46 2022/11/22</t>
+          <t>16:37:16 2022/12/14</t>
         </is>
       </c>
       <c r="G2" s="13" t="inlineStr">
@@ -581,7 +581,7 @@
       </c>
       <c r="I2" s="14" t="inlineStr">
         <is>
-          <t>221122172807</t>
+          <t>221214165117</t>
         </is>
       </c>
       <c r="J2" s="14" t="inlineStr"/>
@@ -619,7 +619,7 @@
       </c>
       <c r="F3" s="13" t="inlineStr">
         <is>
-          <t>17:27:46 2022/11/22</t>
+          <t>16:37:16 2022/12/14</t>
         </is>
       </c>
       <c r="G3" s="13" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="F4" s="13" t="inlineStr">
         <is>
-          <t>17:27:46 2022/11/22</t>
+          <t>16:37:16 2022/12/14</t>
         </is>
       </c>
       <c r="G4" s="13" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="F5" s="13" t="inlineStr">
         <is>
-          <t>17:27:46 2022/11/22</t>
+          <t>16:37:16 2022/12/14</t>
         </is>
       </c>
       <c r="G5" s="13" t="inlineStr">
